--- a/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:05:10+00:00</t>
+    <t>2023-03-03T13:27:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>

--- a/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:27:32+00:00</t>
+    <t>2023-03-03T13:45:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/apply-cardinality-fixes/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T13:45:50+00:00</t>
+    <t>2023-03-03T13:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
